--- a/Team-Data/2014-15/2-26-2014-15.xlsx
+++ b/Team-Data/2014-15/2-26-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -780,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -938,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -989,10 +1056,10 @@
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>22</v>
@@ -1159,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>14</v>
@@ -1171,13 +1238,13 @@
         <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1338,10 +1405,10 @@
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -1472,25 +1539,25 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.458</v>
@@ -1609,31 +1676,31 @@
         <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
@@ -1648,16 +1715,16 @@
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,16 +1733,16 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1687,19 +1754,19 @@
         <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
         <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.661</v>
+        <v>0.65</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.463</v>
@@ -1785,10 +1852,10 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
@@ -1797,22 +1864,22 @@
         <v>21.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1824,7 +1891,7 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA8" t="n">
         <v>21.7</v>
@@ -1833,7 +1900,7 @@
         <v>105.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,10 +1909,10 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="n">
         <v>6</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1854,13 +1921,13 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>4</v>
@@ -1878,10 +1945,10 @@
         <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2051,10 +2118,10 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
         <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,10 +2389,10 @@
         <v>41.7</v>
       </c>
       <c r="J11" t="n">
-        <v>87.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L11" t="n">
         <v>10.5</v>
@@ -2334,16 +2401,16 @@
         <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="R11" t="n">
         <v>10.3</v>
@@ -2355,7 +2422,7 @@
         <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="V11" t="n">
         <v>14.6</v>
@@ -2367,22 +2434,22 @@
         <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA11" t="n">
         <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.2</v>
+        <v>110.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.679</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,19 +2580,19 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
@@ -2534,16 +2601,16 @@
         <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
         <v>21.8</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
@@ -2552,22 +2619,22 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2576,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2600,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,7 +2679,7 @@
         <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>13</v>
@@ -2627,13 +2694,13 @@
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2758,13 +2825,13 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2782,10 +2849,10 @@
         <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273</v>
+        <v>0.268</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3143,46 +3210,46 @@
         <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3331,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>19</v>
@@ -3340,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3695,10 +3762,10 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3716,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3859,7 +3926,7 @@
         <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3880,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3901,7 +3968,7 @@
         <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.518</v>
+        <v>0.526</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,88 +4027,88 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
         <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
         <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>22</v>
@@ -4050,25 +4117,25 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
       </c>
       <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
         <v>18</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AT20" t="n">
         <v>10</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>15</v>
@@ -4080,10 +4147,10 @@
         <v>26</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>18</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4256,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
         <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,10 +4391,10 @@
         <v>38</v>
       </c>
       <c r="J22" t="n">
-        <v>85.7</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L22" t="n">
         <v>7.4</v>
@@ -4339,13 +4406,13 @@
         <v>0.327</v>
       </c>
       <c r="O22" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P22" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R22" t="n">
         <v>12.3</v>
@@ -4357,10 +4424,10 @@
         <v>47.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V22" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4369,31 +4436,31 @@
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z22" t="n">
         <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -4405,7 +4472,7 @@
         <v>8</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4417,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4426,7 +4493,7 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4444,16 +4511,16 @@
         <v>19</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>0.328</v>
+        <v>0.322</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.352</v>
@@ -4527,31 +4594,31 @@
         <v>19.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.3</v>
@@ -4560,13 +4627,13 @@
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4587,7 +4654,7 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
@@ -4605,19 +4672,19 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
         <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H25" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>86.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
         <v>9.5</v>
@@ -4885,22 +4952,22 @@
         <v>0.358</v>
       </c>
       <c r="O25" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P25" t="n">
         <v>21.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.776</v>
+        <v>0.78</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
         <v>20.8</v>
@@ -4912,7 +4979,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
@@ -4921,16 +4988,16 @@
         <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4939,10 +5006,10 @@
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4960,16 +5027,16 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4978,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
@@ -4990,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
@@ -5121,19 +5188,19 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5172,7 +5239,7 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5187,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5333,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
         <v>5</v>
@@ -5360,7 +5427,7 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.589</v>
+        <v>0.596</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,43 +5483,43 @@
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O28" t="n">
         <v>16.4</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5473,10 +5540,10 @@
         <v>100.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5488,16 +5555,16 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,16 +5573,16 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
@@ -5524,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>6</v>
@@ -5670,7 +5737,7 @@
         <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
@@ -5679,7 +5746,7 @@
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5700,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5873,7 +5940,7 @@
         <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5900,7 +5967,7 @@
         <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-26-2014-15</t>
+          <t>2015-02-26</t>
         </is>
       </c>
     </row>
